--- a/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
+++ b/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5810,7 +5811,6 @@
           <t>嘉实研究精选混合H</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>90.35</t>
@@ -5826,6 +5826,3364 @@
       </c>
       <c r="H73" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8337</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8209</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5290</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3731</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2154</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0752</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0353</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0234</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8864</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8839</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7431</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6492</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5987</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4981</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003319</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003320</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
+++ b/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9189,4 +9190,3176 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0335</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6770</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6744</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4820</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3952</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3677</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1810</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7569</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7245</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6173</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5791</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
+++ b/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12362,4 +12363,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
+++ b/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12371,7 +12372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12382,17 +12383,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12402,14 +12423,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.98</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -12418,14 +12461,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.65</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -12434,14 +12499,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>72</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.23</v>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -12450,13 +12537,2317 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4899</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4867</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8276</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4850</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4732</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>67</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>46.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
+++ b/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14746,7 +14747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14757,17 +14758,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14777,14 +14798,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14793,14 +14836,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.98</v>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14809,14 +14874,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.65</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -14825,14 +14912,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.23</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -14841,13 +14950,4081 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6811</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>49.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4701</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3336</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8165</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7790</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7759</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7418</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5456</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4671</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4601</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>74.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>67</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>46.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
+++ b/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18907,7 +18908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18918,17 +18919,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18938,14 +18959,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>108</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.43</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -18954,14 +18997,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -18970,14 +19035,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.98</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -18986,14 +19073,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>87</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.65</v>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -19002,14 +19111,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>72</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.23</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -19018,13 +19149,3257 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7721</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3941</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6807</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6738</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6365</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3893</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>108</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>72</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>67</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>46.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
+++ b/数据整理/stocks/A股/创业板/300628-亿联网络.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>40.89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>52.43</v>
+        <v>40.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>52.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>39.98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>43.65</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>36.23</v>
+        <v>43.65</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>72</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>67</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>46.36</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>75.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>89.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5253</t>
+          <t>3.7425</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012533</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.45</t>
+          <t>59.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.71</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9131</t>
+          <t>2.9507</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010273</t>
+          <t>013812</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实价值长青混合A</t>
+          <t>景顺景气进取混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>45.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.42</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7604</t>
+          <t>2.8535</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008657</t>
+          <t>012533</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城科技创新混合</t>
+          <t>嘉实价值驱动一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.61</t>
+          <t>43.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.24</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2173</t>
+          <t>2.2648</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>010273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>嘉实价值长青混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>40.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.1096</t>
+          <t>2.0665</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011518</t>
+          <t>008657</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实价值臻选混合型证券投资基金</t>
+          <t>景顺长城科技创新混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30.86</t>
+          <t>32.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.9071</t>
+          <t>1.8998</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -894,22 +911,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34.68</t>
+          <t>37.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>87.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.7721</t>
+          <t>1.8213</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001216</t>
+          <t>011169</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达新收益灵活配置混合 - A</t>
+          <t>建信臻选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>67.77</t>
+          <t>30.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>78.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.6197</t>
+          <t>1.7848</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008065</t>
+          <t>011518</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中盘积极成长混合A</t>
+          <t>嘉实价值臻选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.90</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.16</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.5055</t>
+          <t>1.5791</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,32 +1015,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011169</t>
+          <t>001216</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信臻选混合</t>
+          <t>易方达新收益灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>33.92</t>
+          <t>39.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.80</t>
+          <t>77.61</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.3941</t>
+          <t>1.3298</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1041,31 +1058,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实价值优势混合</t>
+          <t>嘉实价值优势混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25.55</t>
+          <t>22.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.3848</t>
+          <t>1.1422</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000697</t>
+          <t>001222</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富移动互联股票</t>
+          <t>鹏华外延成长灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24.28</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>72.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.2116</t>
+          <t>0.8995</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1122,22 +1139,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>42.81</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67.25</t>
+          <t>65.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.1259</t>
+          <t>0.8550</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001222</t>
+          <t>013813</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华外延成长灵活配置混合</t>
+          <t>景顺景气进取混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77.84</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.0873</t>
+          <t>0.7905</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1188,32 +1205,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>000697</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>汇添富移动互联股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.6807</t>
+          <t>0.6630</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>110015</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>易方达行业领先混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>87.23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6738</t>
+          <t>0.6304</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008681</t>
+          <t>006608</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华价值成长混合</t>
+          <t>泓德研究优选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.23</t>
+          <t>19.13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>64.51</t>
+          <t>89.18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.6365</t>
+          <t>0.5720</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>070006</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实服务增值行业混合</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>99.43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.6123</t>
+          <t>0.5546</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006608</t>
+          <t>008681</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泓德研究优选混合</t>
+          <t>鹏华价值成长混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>59.42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.6079</t>
+          <t>0.5257</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>011542</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>鹏华远见回报三年持有期混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24.21</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>63.76</t>
+          <t>60.18</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.6028</t>
+          <t>0.5133</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011542</t>
+          <t>070006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华远见回报三年持有期混合</t>
+          <t>嘉实服务增值行业混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15.51</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>65.02</t>
+          <t>85.24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.5397</t>
+          <t>0.5064</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>83.43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.4567</t>
+          <t>0.4993</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1502,26 +1519,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15.88</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.4462</t>
+          <t>0.4808</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1540,26 +1557,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>77.61</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.4422</t>
+          <t>0.4738</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004355</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实丰和灵活配置混合</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>83.21</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.3900</t>
+          <t>0.4388</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>012107</t>
+          <t>004355</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+          <t>嘉实丰和灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>85.20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3893</t>
+          <t>0.3815</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008958</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>嘉实回报精选股票</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.3762</t>
+          <t>0.3777</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009011</t>
+          <t>002808</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华夏睿阳一年持有期混合</t>
+          <t>泓德优势领航灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.3711</t>
+          <t>0.3686</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009994</t>
+          <t>012107</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合A</t>
+          <t>泓德瑞嘉三年持有期混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.3042</t>
+          <t>0.3147</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1758,36 +1775,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>011626</t>
+          <t>008958</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实匠心回报混合A</t>
+          <t>嘉实回报精选股票</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>90.08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.2933</t>
+          <t>0.3109</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1796,36 +1813,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>160611</t>
+          <t>001473</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鹏华优质治理混合(LOF)</t>
+          <t>建信大安全战略精选股票</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>63.58</t>
+          <t>84.03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.2888</t>
+          <t>0.3031</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1834,36 +1851,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010274</t>
+          <t>530006</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉实价值长青混合C</t>
+          <t>建信核心精选混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>83.42</t>
+          <t>70.64</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.2596</t>
+          <t>0.3012</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1872,36 +1889,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001319</t>
+          <t>009011</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>农银汇理信息传媒主题股票</t>
+          <t>华夏睿阳一年持有期混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>75.73</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.2373</t>
+          <t>0.2920</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1910,32 +1927,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002450</t>
+          <t>160611</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>平安睿享文娱灵活配置混合A</t>
+          <t>鹏华优质治理混合（LOF）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>59.74</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.2371</t>
+          <t>0.2384</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1948,36 +1965,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>530006</t>
+          <t>080012</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>建信核心精选混合</t>
+          <t>长盛电子信息产业混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>71.06</t>
+          <t>88.05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.2200</t>
+          <t>0.2345</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1986,36 +2003,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001473</t>
+          <t>009994</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>建信大安全战略精选股票</t>
+          <t>嘉实创新先锋混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.2113</t>
+          <t>0.2258</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2024,36 +2041,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>005268</t>
+          <t>010274</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鹏华优势企业股票</t>
+          <t>嘉实价值长青混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>82.82</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.2096</t>
+          <t>0.2179</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2062,36 +2079,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>014472</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>景顺远见成长混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>79.28</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.2067</t>
+          <t>0.2135</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2100,36 +2117,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>160529</t>
+          <t>005596</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>博时创业板两年定期开放混合</t>
+          <t>建信战略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>80.39</t>
+          <t>76.53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.1949</t>
+          <t>0.2024</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2138,36 +2155,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>012534</t>
+          <t>005268</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+          <t>鹏华优势企业股票</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>87.71</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.1835</t>
+          <t>0.1734</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2176,36 +2193,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>011828</t>
+          <t>012534</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>平安睿享成长混合型证券投资基金A</t>
+          <t>嘉实价值驱动一年持有期混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.1785</t>
+          <t>0.1480</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2224,26 +2241,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>61.94</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.1674</t>
+          <t>0.1386</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2252,32 +2269,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>005596</t>
+          <t>001319</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>建信战略精选灵活配置混合A</t>
+          <t>农银汇理信息传媒主题股票</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>76.79</t>
+          <t>80.55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.1528</t>
+          <t>0.1360</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2290,36 +2307,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>008066</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>汇添富中盘积极成长混合C</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>85.16</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.1502</t>
+          <t>0.1196</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2328,32 +2345,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006101</t>
+          <t>501098</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平安优势产业灵活配置混合C</t>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>77.90</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.1500</t>
+          <t>0.1152</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2366,36 +2383,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.1472</t>
+          <t>0.1123</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2404,36 +2421,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010126</t>
+          <t>006013</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>平安价值成长混合A</t>
+          <t>易方达鑫转招利混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.1454</t>
+          <t>0.0842</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2442,36 +2459,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>012447</t>
+          <t>007146</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华夏互联网龙头混合型证券投资基金A</t>
+          <t>鹏华研究智选混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>85.47</t>
+          <t>76.25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.1404</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2480,36 +2497,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>501098</t>
+          <t>006385</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+          <t>华泰保兴研究智选灵活配置混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>77.32</t>
+          <t>80.76</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.1395</t>
+          <t>0.0828</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2518,36 +2535,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>010824</t>
+          <t>010265</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天弘创新成长混合A</t>
+          <t>鹏华成长智选混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>65.51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.0755</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2556,36 +2573,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>006013</t>
+          <t>001443</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合A</t>
+          <t>易方达瑞选灵活配置混合I</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>29.58</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.1014</t>
+          <t>0.0742</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2594,36 +2611,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>001444</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>易方达瑞选灵活配置混合E</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.1005</t>
+          <t>0.0742</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2632,36 +2649,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>010265</t>
+          <t>501076</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鹏华成长智选混合C</t>
+          <t>鹏华创新动力混合（LOF）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>67.25</t>
+          <t>40.77</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0913</t>
+          <t>0.0692</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2670,36 +2687,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>006385</t>
+          <t>001747</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合A</t>
+          <t>易方达瑞祺灵活配置混合I</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>28.39</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0895</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2708,36 +2725,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>001747</t>
+          <t>001748</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>易方达瑞祺灵活配置混合I</t>
+          <t>易方达瑞祺灵活配置混合E</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>28.39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0853</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -2746,32 +2763,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>001748</t>
+          <t>005597</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>易方达瑞祺灵活配置混合E</t>
+          <t>建信战略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>76.53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0853</t>
+          <t>0.0537</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2784,36 +2801,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>013855</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>嘉实品质发现混合A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>90.61</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0850</t>
+          <t>0.0507</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2822,36 +2839,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002451</t>
+          <t>009995</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>平安睿享文娱灵活配置混合C</t>
+          <t>嘉实创新先锋混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -2860,36 +2877,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>001314</t>
+          <t>014885</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>易方达新益灵活配置混合I</t>
+          <t>长盛匠心研究混合A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>31.11</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0810</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -2898,36 +2915,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>001315</t>
+          <t>005259</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>易方达新益灵活配置混合E</t>
+          <t>建信龙头企业股票</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>31.11</t>
+          <t>84.43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0810</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -2936,36 +2953,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>006100</t>
+          <t>001892</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>平安优势产业灵活配置混合A</t>
+          <t>长盛新兴成长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>71.07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -2974,36 +2991,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>013855</t>
+          <t>014473</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>嘉实品质发现混合A</t>
+          <t>景顺远见成长混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>79.28</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3012,36 +3029,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>004292</t>
+          <t>014886</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鹏华沪深港互联网股票</t>
+          <t>长盛匠心研究混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0643</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -3050,36 +3067,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>009995</t>
+          <t>009015</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合C</t>
+          <t>泓德睿享一年持有期混合A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3088,36 +3105,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>010127</t>
+          <t>006014</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>平安价值成长混合C</t>
+          <t>易方达鑫转招利混合C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3126,36 +3143,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>004341</t>
+          <t>012108</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>农银汇理尖端科技灵活配置混合</t>
+          <t>泓德瑞嘉三年持有期混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -3164,36 +3181,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>011829</t>
+          <t>015683</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>平安睿享成长混合型证券投资基金C</t>
+          <t>景顺长城科技创新混合C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3202,36 +3219,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>012448</t>
+          <t>080002</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华夏互联网龙头混合型证券投资基金C</t>
+          <t>长盛创新先锋混合A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>85.47</t>
+          <t>76.75</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3240,36 +3257,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>009015</t>
+          <t>014627</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>泓德睿享一年持有期混合A</t>
+          <t>财通多策略福瑞混合（LOF）C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>29.40</t>
+          <t>61.59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.0205</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3278,36 +3295,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>005597</t>
+          <t>013856</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>建信战略精选灵活配置混合C</t>
+          <t>嘉实品质发现混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>76.79</t>
+          <t>90.61</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.0431</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3316,36 +3333,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>011781</t>
+          <t>501028</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>泓德慧享混合A</t>
+          <t>财通多策略福瑞混合（LOF）A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>61.59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3354,36 +3371,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>007893</t>
+          <t>005170</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>平安估值精选混合A</t>
+          <t>华泰保兴策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0380</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3392,36 +3409,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>080002</t>
+          <t>530019</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合</t>
+          <t>建信社会责任混合</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>73.97</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3430,36 +3447,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>006014</t>
+          <t>015104</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合C</t>
+          <t>博道研究恒选混合A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>29.58</t>
+          <t>80.50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3468,36 +3485,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>010825</t>
+          <t>014861</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天弘创新成长混合C</t>
+          <t>申万菱信双禧混合A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>30.74</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3506,32 +3523,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>012108</t>
+          <t>001781</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+          <t>建信现代服务业股票</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>81.00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.0249</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3554,26 +3571,26 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -3582,36 +3599,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>007894</t>
+          <t>004360</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>平安估值精选混合C</t>
+          <t>创金合信量化核心混合C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -3620,36 +3637,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>013856</t>
+          <t>016169</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>嘉实品质发现混合C</t>
+          <t>嘉实价值优势混合C</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -3658,36 +3675,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>005170</t>
+          <t>004359</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合C</t>
+          <t>创金合信量化核心混合A</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -3696,36 +3713,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>011627</t>
+          <t>015105</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>嘉实匠心回报混合C</t>
+          <t>博道研究恒选混合C</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>80.50</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -3734,36 +3751,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>007133</t>
+          <t>012716</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票A</t>
+          <t>长盛创新先锋混合C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>83.74</t>
+          <t>76.75</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -3772,36 +3789,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>007134</t>
+          <t>009016</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票C</t>
+          <t>泓德睿享一年持有期混合C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>83.74</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -3810,32 +3827,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>009016</t>
+          <t>006386</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>泓德睿享一年持有期混合C</t>
+          <t>华泰保兴研究智选灵活配置混合C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>29.40</t>
+          <t>80.76</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3848,36 +3865,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>006386</t>
+          <t>014862</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合C</t>
+          <t>申万菱信双禧混合C</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>30.74</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -3886,12 +3903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>011782</t>
+          <t>015198</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>泓德慧享混合C</t>
+          <t>汇添富移动互联股票C</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3901,19 +3918,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -3922,12 +3939,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>012716</t>
+          <t>015199</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合C</t>
+          <t>汇添富移动互联股票D</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3937,12 +3954,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3958,6 +3975,3364 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7721</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3941</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6807</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6738</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6365</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3893</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8117,7 +11492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10491,7 +13866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13663,7 +17038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17021,7 +20396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19806,7 +23181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
